--- a/Excel/wdr_par_c/wdr/msg/uid00331696.xlsx
+++ b/Excel/wdr_par_c/wdr/msg/uid00331696.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\Tradução de Jogos\Yakuza Kiwami\Tradução\Excel\wdr_par_c\wdr\msg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\Tradução de Jogos\Traducao-YakuzaKiwami\Excel\wdr_par_c\wdr\msg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A291C987-46A3-402D-BBEE-C5FA89C3B8B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F26B40-55AA-4AB3-BB1A-8DDC3BDBA3E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4215" windowWidth="14400" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
   <si>
     <t>OFFSET</t>
   </si>
@@ -28,30 +28,51 @@
     <t>ORIGINAL</t>
   </si>
   <si>
-    <t>TRADUÇÃO</t>
+    <t>TRADUCCIÓN</t>
   </si>
   <si>
     <t>Hey, what can I do for you today?</t>
   </si>
   <si>
+    <t>Olá, o que posso fazer por você hoje?</t>
+  </si>
+  <si>
     <t>Oh, you want the goods from Kiwami Bob Utsunomiya?\r\nWell, guess what I have for you!</t>
   </si>
   <si>
+    <t>Ah, você quer a minha mercadoria?\r\nBom, adivinhe o que eu tenho para você!</t>
+  </si>
+  <si>
     <t>Received outfit &lt;Color:8&gt;Dragon Tattoo&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Traje recebido &lt;Color:8&gt;Tatuagem do Dragão&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Toughness Emperor&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;Toughness Emperor&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Tauriner ++&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;Tauriner ++&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Staminan Royale&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;Staminan Royale&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Modified Model Gun&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;Pistola de Modelo Modificado&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Gold Plate&lt;Color:Default&gt;.</t>
   </si>
   <si>
@@ -61,30 +82,54 @@
     <t>Received &lt;Color:8&gt;Extra Balanced Motor&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;Extra Balanced Motor&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Extra Slim Tires&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;Extra Slim Tires&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Boost Gears&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;Boost Gears&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Speed Frame Plus&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;Speed Frame Plus&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Stone of Enduring&lt;Color:Default&gt;.</t>
   </si>
   <si>
     <t>Received outfit &lt;Color:8&gt;Black Suit&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Traje recebido &lt;Color:8&gt;Terno Preto&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Toughness Infinity&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;Toughness Infinity&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Tauriner Maximum&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;Tauriner Maximum&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Staminan Spark&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;Staminan Spark&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Marlin Cannon&lt;Color:Default&gt;.</t>
   </si>
   <si>
@@ -94,175 +139,136 @@
     <t>Received outfit &lt;Color:8&gt;Snakeskin Jacket&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Traje recebido &lt;Color:8&gt;Casaco de Pele de Cobra&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Killer Bee&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;Killer Bee&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Godspeed Motor&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;Godspeed Motor&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Super Slim Tires&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;Super Slim Tires&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Godspeed Gears Plus&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;Godspeed Gears Plus&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;New Bumper Plate&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;New Bumper Plate&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Sacrifice Stone&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;Pedra do Sacrifício&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Calming Towel&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;Calming Towel&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Magnetic Necklace&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;Colar Magnético&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;Dojima Family Amulet&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;Amuleto da Família Dojima&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Received &lt;Color:8&gt;War God Talisman&lt;Color:Default&gt;.</t>
   </si>
   <si>
+    <t>Recebido &lt;Color:8&gt;Talismã do Deus da Guerra&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
     <t>Don't sweat the details. This stuff is yours to keep. Just\r\nremember, you can only change outfits in Premium Adventure.</t>
   </si>
   <si>
+    <t>Não se preocupe com os detalhes. Apenas guarde esse material.\r\nLembre-se, você só pode trocar de roupa em uma Aventura Premium.</t>
+  </si>
+  <si>
     <t>You're only getting this once, so take good care of it.</t>
   </si>
   <si>
+    <t>Só receberá isso uma vez, por isso cuide bem disso.</t>
+  </si>
+  <si>
     <t>If you lose it, stop by and I'll get it back for you.</t>
   </si>
   <si>
+    <t>Se perder ele, passe aqui que te devolverei ele.</t>
+  </si>
+  <si>
     <t>But it's for you and it's free, you know?</t>
   </si>
   <si>
+    <t>Mas é para você e é de graça, voce sabe né?</t>
+  </si>
+  <si>
     <t>Actually, I don't have anything at all for you right now.</t>
   </si>
   <si>
+    <t>Na verdade, não tenho nada para você agora.</t>
+  </si>
+  <si>
     <t>Kiwami Bob Utsunomiya</t>
   </si>
   <si>
     <t>Trade CP</t>
   </si>
   <si>
+    <t>Trocar CP</t>
+  </si>
+  <si>
     <t>Pick Up Items</t>
   </si>
   <si>
+    <t>Recolher Itens</t>
+  </si>
+  <si>
     <t>Nothing</t>
   </si>
   <si>
+    <t>Nada</t>
+  </si>
+  <si>
     <t>dummy</t>
   </si>
   <si>
-    <t>Mas é para você e é de graça, voce sabe né?</t>
-  </si>
-  <si>
-    <t>Na verdade, não tenho nada para você agora.</t>
-  </si>
-  <si>
-    <t>Recolher Itens</t>
-  </si>
-  <si>
-    <t>Só receberá isso uma vez, por isso cuide bem disso.</t>
-  </si>
-  <si>
-    <t>Se perder ele, passe aqui que te devolverei ele.</t>
-  </si>
-  <si>
-    <t>Olá, o que posso fazer por você hoje?</t>
-  </si>
-  <si>
-    <t>Ah, você quer a minha mercadoria?\r\nBom, adivinhe o que eu tenho para você!</t>
-  </si>
-  <si>
-    <t>Traje recebido &lt;Cor:8&gt;Tatuagem do Dragão&lt;Cor:Default&gt;.</t>
-  </si>
-  <si>
-    <t>Traje recebido &lt;Color:8&gt;Prison Escapee&lt;Color:Default&gt;.</t>
-  </si>
-  <si>
-    <t>Recebido &lt;Color:8&gt;Toughness Emperor&lt;Color:Default&gt;.</t>
-  </si>
-  <si>
-    <t>Recebido &lt;Color:8&gt;Tauriner ++&lt;Color:Default&gt;.</t>
-  </si>
-  <si>
-    <t>Recebido &lt;Color:8&gt;Staminan Royale&lt;Color:Default&gt;.</t>
-  </si>
-  <si>
-    <t>Recebido &lt;Color:8&gt;Gold Plate&lt;Color:Default&gt;.</t>
-  </si>
-  <si>
-    <t>Recebido &lt;Color:8&gt;Extra Balanced Motor&lt;Color:Default&gt;.</t>
-  </si>
-  <si>
-    <t>Recebido &lt;Color:8&gt;Extra Slim Tires&lt;Color:Default&gt;.</t>
-  </si>
-  <si>
-    <t>Recebido &lt;Color:8&gt;Boost Gears&lt;Color:Default&gt;.</t>
-  </si>
-  <si>
-    <t>Recebido &lt;Color:8&gt;Speed Frame Plus&lt;Color:Default&gt;.</t>
-  </si>
-  <si>
-    <t>Recebido &lt;Color:8&gt;Stone of Enduring&lt;Color:Default&gt;.</t>
-  </si>
-  <si>
-    <t>Recebido &lt;Color:8&gt;Toughness Infinity&lt;Color:Default&gt;.</t>
-  </si>
-  <si>
-    <t>Recebido &lt;Color:8&gt;Tauriner Maximum&lt;Color:Default&gt;.</t>
-  </si>
-  <si>
-    <t>Recebido &lt;Color:8&gt;Staminan Spark&lt;Color:Default&gt;.</t>
-  </si>
-  <si>
-    <t>Recebido &lt;Color:8&gt;Marlin Cannon&lt;Color:Default&gt;.</t>
-  </si>
-  <si>
-    <t>Recebido &lt;Color:8&gt;Platinum Plate&lt;Color:Default&gt;.</t>
-  </si>
-  <si>
-    <t>Recebido &lt;Color:8&gt;Killer Bee&lt;Color:Default&gt;.</t>
-  </si>
-  <si>
-    <t>Recebido &lt;Color:8&gt;Godspeed Motor&lt;Color:Default&gt;.</t>
-  </si>
-  <si>
-    <t>Recebido &lt;Color:8&gt;Super Slim Tires&lt;Color:Default&gt;.</t>
-  </si>
-  <si>
-    <t>Recebido &lt;Color:8&gt;Godspeed Gears Plus&lt;Color:Default&gt;.</t>
-  </si>
-  <si>
-    <t>Recebido &lt;Color:8&gt;New Bumper Plate&lt;Color:Default&gt;.</t>
-  </si>
-  <si>
-    <t>Recebido &lt;Color:8&gt;Calming Towel&lt;Color:Default&gt;.</t>
-  </si>
-  <si>
-    <t>Não se preocupe com os detalhes. Este material é seu para guardar.\r\nLembre-se, você só pode trocar de roupa em Aventura Premium.</t>
-  </si>
-  <si>
-    <t>Traje recebido &lt;Color:8&gt;Terno Preto&lt;Color:Default&gt;.</t>
-  </si>
-  <si>
-    <t>Traje recebido &lt;Color:8&gt;Casaco de Pele de Cobra&lt;Color:Default&gt;.</t>
-  </si>
-  <si>
-    <t>Recebido &lt;Color:8&gt;Amuleto da Família Dojima&lt;Color:Default&gt;.</t>
-  </si>
-  <si>
-    <t>Recebido &lt;Color:8&gt;Talismã do Deus da Guerra&lt;Color:Default&gt;.</t>
-  </si>
-  <si>
-    <t>Recebido &lt;Color:8&gt;Colar Magnético&lt;Color:Default&gt;.</t>
-  </si>
-  <si>
-    <t>Recebido &lt;Color:8&gt;Pedra do Sacrifício&lt;Color:Default&gt;.</t>
-  </si>
-  <si>
-    <t>Recebido &lt;Color:8&gt;Pistola de Modelo Modificado&lt;Color:Default&gt;.</t>
+    <t>Recebido &lt;Color:8&gt;Prato de Ouro&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
+    <t>Traje recebido &lt;Color:8&gt;Prisioneiro Fugitivo&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
+    <t>Recebido &lt;Color:8&gt;Prato de Platina&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
+    <t>Recebido &lt;Color:8&gt;Canhão Peixe Espada&lt;Color:Default&gt;.</t>
+  </si>
+  <si>
+    <t>Recebido &lt;Color:8&gt;Pedra Duradoura&lt;Color:Default&gt;.</t>
   </si>
 </sst>
 </file>
@@ -617,18 +623,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -639,7 +642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>7724</v>
       </c>
@@ -647,161 +650,166 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>7759</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>7845</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>7900</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>7953</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>8000</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>8051</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8105</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>8152</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>79</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>8208</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>8264</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>8316</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>8363</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>8415</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>8469</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>74</v>
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -809,10 +817,10 @@
         <v>8521</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -820,10 +828,10 @@
         <v>8575</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -831,10 +839,10 @@
         <v>8627</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -842,10 +850,10 @@
         <v>8677</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -853,10 +861,10 @@
         <v>8726</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
-        <v>66</v>
+        <v>37</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -864,10 +872,10 @@
         <v>8777</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>75</v>
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -875,10 +883,10 @@
         <v>8835</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -886,10 +894,10 @@
         <v>8881</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -897,10 +905,10 @@
         <v>8931</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -908,10 +916,10 @@
         <v>8983</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -919,10 +927,10 @@
         <v>9038</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -930,10 +938,10 @@
         <v>9090</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>79</v>
+        <v>50</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -941,10 +949,10 @@
         <v>9142</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -952,10 +960,10 @@
         <v>9192</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>78</v>
+        <v>54</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -963,10 +971,10 @@
         <v>9246</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>76</v>
+        <v>56</v>
+      </c>
+      <c r="C31" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -974,10 +982,10 @@
         <v>9303</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -985,10 +993,10 @@
         <v>9356</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -996,10 +1004,10 @@
         <v>9476</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>47</v>
+        <v>62</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1007,10 +1015,10 @@
         <v>9532</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
+      </c>
+      <c r="C35" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1018,10 +1026,10 @@
         <v>9586</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1029,10 +1037,10 @@
         <v>9628</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>45</v>
+        <v>68</v>
+      </c>
+      <c r="C37" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1040,10 +1048,10 @@
         <v>9708</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1051,10 +1059,10 @@
         <v>9730</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>40</v>
+        <v>71</v>
+      </c>
+      <c r="C39" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1062,10 +1070,10 @@
         <v>9739</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>46</v>
+        <v>73</v>
+      </c>
+      <c r="C40" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1073,10 +1081,10 @@
         <v>9753</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1084,13 +1092,14 @@
         <v>9761</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>